--- a/tests/data/perovskite_ions_reduced.xlsx
+++ b/tests/data/perovskite_ions_reduced.xlsx
@@ -199,7 +199,7 @@
     <t xml:space="preserve">7440-31-5</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
